--- a/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
+++ b/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/gp-statmod/GroupPolarizationStatmod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A6DB983-D670-8143-85D8-2708096BC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A6EEC309-9D4E-9C45-91E0-02E561BB3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-14320" windowWidth="21600" windowHeight="19200" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
   </bookViews>
   <sheets>
     <sheet name="StudiesAnalysis" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,8 +554,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +754,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -908,11 +921,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1304,76 +1321,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9D91A-08D2-B24C-9D0F-D8C217A4413A}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1427,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
@@ -2141,7 +2167,7 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2783,68 +2809,68 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>26.024609550000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>1.025744655</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>5.6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>4.88</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <v>-0.72</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>3.14</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>28</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <v>0.1</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>0.05</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>-0.16864019399999999</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <v>0.120005745</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
         <v>10</v>
       </c>
-      <c r="Q24" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="Q24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3099,65 +3125,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>19.086266989999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>1.2682386640000001</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>5.6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>-1</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>2.84</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>28</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>0.1</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>0.05</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>-0.26770891000000002</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="6">
         <v>6.40885E-4</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6">
         <v>10</v>
       </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="b">
-        <v>1</v>
-      </c>
-      <c r="T29">
+      <c r="Q29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3347,133 +3373,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>30.537964809999998</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>0.49156414700000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>0.25</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>-0.72</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <v>-0.97</v>
       </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="6">
         <v>58</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>-0.5</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="6">
         <v>0.6</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>0.1</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="6">
         <v>-0.30210621500000001</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="6">
         <v>0.22</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="6">
         <v>-4</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="6">
         <v>4</v>
       </c>
-      <c r="Q33" t="b">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33" t="b">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="Q33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>29.767606180000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>1.0118344109999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>0.1</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>-0.33</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6">
         <v>-0.44</v>
       </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="6">
         <v>58</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="6">
         <v>-0.33</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="6">
         <v>0.26</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>0.05</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="6">
         <v>-0.135275741</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="7">
         <v>1.8099999999999999E-5</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="6">
         <v>-4</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="6">
         <v>4</v>
       </c>
-      <c r="Q34" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34" t="b">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="Q34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6">
+        <v>1</v>
+      </c>
+      <c r="S34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" s="6">
+        <v>1</v>
+      </c>
+      <c r="U34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3604,68 +3630,68 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>42.241527060000003</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>0.60451992499999996</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <v>2.39</v>
       </c>
-      <c r="H37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="6">
         <v>58</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="6">
         <v>2.37</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="6">
         <v>0.1</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>0.05</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="6">
         <v>3.8707637000000003E-2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="6">
         <v>-0.16038399</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="6">
         <v>-4</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="6">
         <v>4</v>
       </c>
-      <c r="Q37" t="b">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" t="b">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="Q37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6">
+        <v>1</v>
+      </c>
+      <c r="S37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="6">
+        <v>1</v>
+      </c>
+      <c r="U37" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3734,133 +3760,133 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>34.6410719</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>0.14263410700000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>0.13</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>2.91</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="6">
         <v>2.78</v>
       </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="6">
         <v>58</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="6">
         <v>2.69</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="6">
         <v>0.05</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="6">
         <v>0.05</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="6">
         <v>0.117045755</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="6">
         <v>-1.416991E-3</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="6">
         <v>-4</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="6">
         <v>4</v>
       </c>
-      <c r="Q39" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" t="b">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="Q39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" s="6">
+        <v>1</v>
+      </c>
+      <c r="S39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="6">
+        <v>1</v>
+      </c>
+      <c r="U39" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>16.537868880000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>1.1341689370000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>0.13</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>0.97</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <v>0.84</v>
       </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="6">
         <v>58</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="6">
         <v>0.9</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="6">
         <v>0.06</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>0.01</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="6">
         <v>4.1949032999999997E-2</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="6">
         <v>-7.0775836999999994E-2</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="6">
         <v>-4</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="6">
         <v>4</v>
       </c>
-      <c r="Q40" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40" t="b">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="Q40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" s="6">
+        <v>1</v>
+      </c>
+      <c r="S40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1</v>
+      </c>
+      <c r="U40" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4182,7 +4208,7 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U45" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4755,7 +4781,7 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="U54" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5204,6 +5230,12 @@
       <c r="T61">
         <v>1</v>
       </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C64" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
+++ b/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/gp-statmod/GroupPolarizationStatmod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A6EEC309-9D4E-9C45-91E0-02E561BB3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{570FD1DD-24F6-9E40-91A0-9B565515DA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
+    <workbookView xWindow="8400" yWindow="2400" windowWidth="21600" windowHeight="19200" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
   </bookViews>
   <sheets>
     <sheet name="StudiesAnalysis" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +760,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -921,15 +927,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1324,18 +1332,21 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1781,68 +1792,68 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>4.3214805470000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>1.897926743</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>-0.61</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>-1.04</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>-0.43</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8">
         <v>140</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>-1.2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>0.05</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>5.7874900000000004E-4</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>4.88679E-4</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>-3</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>3</v>
       </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="Q8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5244,5 +5255,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
+++ b/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/gp-statmod/GroupPolarizationStatmod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{570FD1DD-24F6-9E40-91A0-9B565515DA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E5D113EC-79AF-1547-A43A-1AC932A12AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="2400" windowWidth="21600" windowHeight="19200" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
   </bookViews>
   <sheets>
     <sheet name="StudiesAnalysis" sheetId="1" r:id="rId1"/>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9D91A-08D2-B24C-9D0F-D8C217A4413A}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
+++ b/GroupPolarizationStatmod/data/StudiesAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/gp-statmod/GroupPolarizationStatmod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E5D113EC-79AF-1547-A43A-1AC932A12AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{41B4C351-E463-6E4C-8293-29208FEC3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{28B24468-AC29-524C-88BB-DBB8559362C2}"/>
   </bookViews>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9D91A-08D2-B24C-9D0F-D8C217A4413A}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
